--- a/data/trans_dic/P73-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P73-Edad-trans_dic.xlsx
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,04; 13,66</t>
+          <t>8,04; 13,71</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,82; 13,52</t>
+          <t>7,77; 13,74</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,79; 12,84</t>
+          <t>6,9; 12,7</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>13,12; 20,06</t>
+          <t>12,97; 20,02</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>15,0; 22,61</t>
+          <t>15,06; 22,7</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>16,48; 24,63</t>
+          <t>17,0; 24,6</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>11,25; 15,64</t>
+          <t>11,36; 15,71</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>11,91; 16,71</t>
+          <t>12,17; 16,88</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>12,45; 17,45</t>
+          <t>12,4; 17,16</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>49,38; 56,88</t>
+          <t>49,23; 56,77</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>44,07; 51,94</t>
+          <t>43,84; 51,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>50,13; 58,5</t>
+          <t>50,63; 58,47</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>63,17; 71,21</t>
+          <t>63,33; 71,29</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>64,23; 71,55</t>
+          <t>64,07; 71,64</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>56,62; 64,58</t>
+          <t>56,52; 64,51</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>56,95; 62,55</t>
+          <t>57,02; 62,24</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>54,34; 59,79</t>
+          <t>54,24; 59,77</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>54,3; 60,18</t>
+          <t>54,31; 60,36</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>76,96; 83,51</t>
+          <t>76,36; 83,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>77,61; 83,99</t>
+          <t>77,94; 84,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>71,32; 78,23</t>
+          <t>71,45; 78,3</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>80,0; 86,16</t>
+          <t>80,28; 86,11</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>83,09; 88,53</t>
+          <t>83,25; 88,65</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>76,39; 82,32</t>
+          <t>76,25; 82,31</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>79,54; 84,04</t>
+          <t>79,56; 83,94</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>81,54; 85,51</t>
+          <t>81,3; 85,52</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>74,9; 79,35</t>
+          <t>74,61; 79,29</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>82,38; 89,07</t>
+          <t>82,31; 89,01</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>77,5; 84,37</t>
+          <t>77,69; 84,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>70,74; 77,3</t>
+          <t>70,35; 77,71</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>75,78; 82,95</t>
+          <t>75,93; 82,85</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>76,39; 83,24</t>
+          <t>76,3; 83,13</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>72,12; 79,23</t>
+          <t>71,91; 78,62</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>80,23; 85,21</t>
+          <t>80,54; 85,19</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>78,1; 82,96</t>
+          <t>78,22; 83,03</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>72,35; 77,37</t>
+          <t>72,2; 77,35</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>84,57; 91,34</t>
+          <t>84,13; 90,91</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>83,11; 89,76</t>
+          <t>82,71; 89,66</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>76,95; 84,33</t>
+          <t>76,67; 84,34</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>73,55; 81,34</t>
+          <t>73,3; 81,59</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>74,14; 82,57</t>
+          <t>74,18; 82,34</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>62,54; 71,46</t>
+          <t>62,61; 71,35</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>79,91; 85,19</t>
+          <t>79,97; 85,39</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>79,72; 85,18</t>
+          <t>79,82; 85,1</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>70,84; 76,85</t>
+          <t>70,85; 77,07</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>76,18; 83,13</t>
+          <t>76,09; 83,01</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>72,58; 79,69</t>
+          <t>72,06; 79,79</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>68,63; 76,07</t>
+          <t>69,2; 75,94</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>43,21; 50,54</t>
+          <t>43,06; 50,85</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>44,08; 51,83</t>
+          <t>44,08; 51,61</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>43,67; 51,34</t>
+          <t>43,69; 51,11</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>58,02; 63,85</t>
+          <t>58,07; 63,89</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>57,19; 62,92</t>
+          <t>57,22; 63,03</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>55,59; 61,17</t>
+          <t>55,28; 60,68</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>63,7; 67,02</t>
+          <t>63,83; 67,12</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>63,38; 66,75</t>
+          <t>63,36; 66,66</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>61,95; 65,16</t>
+          <t>61,88; 65,35</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>61,01; 64,43</t>
+          <t>61,02; 64,11</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>63,06; 66,49</t>
+          <t>63,21; 66,5</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>58,8; 62,05</t>
+          <t>58,62; 62,02</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>62,75; 65,19</t>
+          <t>62,81; 65,14</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>63,74; 66,11</t>
+          <t>63,68; 66,19</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>60,7; 63,01</t>
+          <t>60,7; 63,15</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">

--- a/data/trans_dic/P73-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P73-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,04; 13,71</t>
+          <t>7,95; 13,78</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,77; 13,74</t>
+          <t>7,75; 13,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,9; 12,7</t>
+          <t>6,78; 12,51</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>12,97; 20,02</t>
+          <t>12,78; 19,82</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>15,06; 22,7</t>
+          <t>14,69; 22,15</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>17,0; 24,6</t>
+          <t>16,43; 24,41</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>11,36; 15,71</t>
+          <t>11,18; 15,52</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>12,17; 16,88</t>
+          <t>12,1; 17,01</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>12,4; 17,16</t>
+          <t>12,44; 17,3</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>49,23; 56,77</t>
+          <t>49,52; 57,03</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>43,84; 51,84</t>
+          <t>43,83; 51,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>50,63; 58,47</t>
+          <t>50,39; 58,67</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>63,33; 71,29</t>
+          <t>63,12; 70,83</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>64,07; 71,64</t>
+          <t>63,85; 71,43</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>56,52; 64,51</t>
+          <t>56,62; 64,74</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>57,02; 62,24</t>
+          <t>56,75; 62,32</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>54,24; 59,77</t>
+          <t>54,26; 59,94</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>54,31; 60,36</t>
+          <t>54,51; 60,17</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>76,36; 83,06</t>
+          <t>76,53; 83,15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>77,94; 84,09</t>
+          <t>77,47; 83,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>71,45; 78,3</t>
+          <t>71,38; 77,93</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>80,28; 86,11</t>
+          <t>80,52; 86,22</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>83,25; 88,65</t>
+          <t>83,52; 88,77</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>76,25; 82,31</t>
+          <t>75,96; 82,11</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>79,56; 83,94</t>
+          <t>79,64; 83,93</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>81,3; 85,52</t>
+          <t>81,55; 85,77</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>74,61; 79,29</t>
+          <t>74,85; 79,37</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>82,31; 89,01</t>
+          <t>82,52; 89,01</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>77,69; 84,35</t>
+          <t>77,71; 84,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>70,35; 77,71</t>
+          <t>70,22; 77,92</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>75,93; 82,85</t>
+          <t>75,96; 83,15</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>76,3; 83,13</t>
+          <t>76,55; 83,57</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>71,91; 78,62</t>
+          <t>72,28; 79,23</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>80,54; 85,19</t>
+          <t>80,39; 85,27</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>78,22; 83,03</t>
+          <t>78,25; 83,17</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>72,2; 77,35</t>
+          <t>72,41; 77,41</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>84,13; 90,91</t>
+          <t>84,39; 90,93</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>82,71; 89,66</t>
+          <t>83,06; 89,54</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>76,67; 84,34</t>
+          <t>77,03; 84,62</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>73,3; 81,59</t>
+          <t>72,9; 81,63</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>74,18; 82,34</t>
+          <t>74,7; 82,35</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>62,61; 71,35</t>
+          <t>62,1; 71,1</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>79,97; 85,39</t>
+          <t>79,91; 85,39</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>79,82; 85,1</t>
+          <t>79,79; 85,11</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>70,85; 77,07</t>
+          <t>70,82; 76,83</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>76,09; 83,01</t>
+          <t>76,32; 83,13</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>72,06; 79,79</t>
+          <t>71,98; 79,35</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>69,2; 75,94</t>
+          <t>69,08; 75,81</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>43,06; 50,85</t>
+          <t>43,08; 50,65</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>44,08; 51,61</t>
+          <t>43,98; 51,49</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>43,69; 51,11</t>
+          <t>43,53; 51,0</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>58,07; 63,89</t>
+          <t>58,01; 63,81</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>57,22; 63,03</t>
+          <t>57,28; 62,84</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>55,28; 60,68</t>
+          <t>55,49; 60,98</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>63,83; 67,12</t>
+          <t>63,82; 67,1</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>63,36; 66,66</t>
+          <t>63,23; 66,56</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>61,88; 65,35</t>
+          <t>61,8; 65,11</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>61,02; 64,11</t>
+          <t>61,03; 64,22</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>63,21; 66,5</t>
+          <t>63,18; 66,4</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>58,62; 62,02</t>
+          <t>58,84; 62,26</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>62,81; 65,14</t>
+          <t>62,73; 65,19</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>63,68; 66,19</t>
+          <t>63,83; 66,16</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>60,7; 63,15</t>
+          <t>60,66; 63,01</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">

--- a/data/trans_dic/P73-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P73-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,9 +526,6 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="14" customWidth="1" min="13" max="13"/>
-    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,23 +542,20 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
+      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
-      <c r="N1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +577,32 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
         </is>
       </c>
     </row>
@@ -639,9 +618,6 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
-      <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -671,47 +647,32 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,1%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>16,1%</t>
+          <t>18,31%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>18,31%</t>
+          <t>20,45%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>20,45%</t>
+          <t>13,27%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,31%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>13,27%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>14,31%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
           <t>14,72%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -724,62 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,95; 13,78</t>
+          <t>8,04; 13,66</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,75; 13,65</t>
+          <t>7,82; 13,52</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,78; 12,51</t>
+          <t>6,79; 12,84</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,11</t>
+          <t>13,12; 20,06</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>12,78; 19,82</t>
+          <t>15,0; 22,61</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>14,69; 22,15</t>
+          <t>16,48; 24,63</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>16,43; 24,41</t>
+          <t>11,25; 15,64</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,92</t>
+          <t>11,91; 16,71</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>11,18; 15,52</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>12,1; 17,01</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>12,44; 17,3</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,51</t>
+          <t>12,45; 17,45</t>
         </is>
       </c>
     </row>
@@ -811,47 +757,32 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>67,27%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>67,27%</t>
+          <t>67,7%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>67,7%</t>
+          <t>60,66%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>60,66%</t>
+          <t>59,62%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,16%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>59,62%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>57,16%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
           <t>57,43%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -864,62 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>49,52; 57,03</t>
+          <t>49,38; 56,88</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>43,83; 51,84</t>
+          <t>44,07; 51,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>50,39; 58,67</t>
+          <t>50,13; 58,5</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,63</t>
+          <t>63,17; 71,21</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>63,12; 70,83</t>
+          <t>64,23; 71,55</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>63,85; 71,43</t>
+          <t>56,62; 64,58</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>56,62; 64,74</t>
+          <t>56,95; 62,55</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>54,34; 59,79</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>56,75; 62,32</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>54,26; 59,94</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>54,51; 60,17</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,25</t>
+          <t>54,3; 60,18</t>
         </is>
       </c>
     </row>
@@ -951,47 +867,32 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,44%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>83,44%</t>
+          <t>86,22%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>86,22%</t>
+          <t>79,39%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>79,39%</t>
+          <t>81,85%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,63%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>81,85%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>83,63%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
           <t>77,12%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>76,53; 83,15</t>
+          <t>76,96; 83,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>77,47; 83,72</t>
+          <t>77,61; 83,99</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>71,38; 77,93</t>
+          <t>71,32; 78,23</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>80,0; 86,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>80,52; 86,22</t>
+          <t>83,09; 88,53</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>83,52; 88,77</t>
+          <t>76,39; 82,32</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>75,96; 82,11</t>
+          <t>79,54; 84,04</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>81,54; 85,51</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>79,64; 83,93</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>81,55; 85,77</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>74,85; 79,37</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,14</t>
+          <t>74,9; 79,35</t>
         </is>
       </c>
     </row>
@@ -1091,47 +977,32 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>79,65%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>79,65%</t>
+          <t>80,04%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>80,04%</t>
+          <t>75,64%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>75,64%</t>
+          <t>82,88%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>80,66%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>82,88%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>80,66%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
           <t>74,88%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>82,52; 89,01</t>
+          <t>82,38; 89,07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>77,71; 84,78</t>
+          <t>77,5; 84,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>70,22; 77,92</t>
+          <t>70,74; 77,3</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>75,78; 82,95</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>75,96; 83,15</t>
+          <t>76,39; 83,24</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>76,55; 83,57</t>
+          <t>72,12; 79,23</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>72,28; 79,23</t>
+          <t>80,23; 85,21</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>78,1; 82,96</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>80,39; 85,27</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>78,25; 83,17</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>72,41; 77,41</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,11</t>
+          <t>72,35; 77,37</t>
         </is>
       </c>
     </row>
@@ -1231,47 +1087,32 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>77,65%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>77,65%</t>
+          <t>78,58%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>78,58%</t>
+          <t>67,06%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>67,06%</t>
+          <t>82,71%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,48%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>82,71%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>82,48%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
           <t>73,93%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>84,39; 90,93</t>
+          <t>84,57; 91,34</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>83,06; 89,54</t>
+          <t>83,11; 89,76</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>77,03; 84,62</t>
+          <t>76,95; 84,33</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>73,55; 81,34</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>72,9; 81,63</t>
+          <t>74,14; 82,57</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>74,7; 82,35</t>
+          <t>62,54; 71,46</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>62,1; 71,1</t>
+          <t>79,91; 85,19</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>79,72; 85,18</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>79,91; 85,39</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>79,79; 85,11</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>70,82; 76,83</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,12</t>
+          <t>70,84; 76,85</t>
         </is>
       </c>
     </row>
@@ -1371,47 +1197,32 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>47,02%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>47,02%</t>
+          <t>47,89%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>47,89%</t>
+          <t>47,34%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>47,34%</t>
+          <t>61,01%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>60,01%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>61,01%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>60,01%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
           <t>58,25%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>76,32; 83,13</t>
+          <t>76,18; 83,13</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>71,98; 79,35</t>
+          <t>72,58; 79,69</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>69,08; 75,81</t>
+          <t>68,63; 76,07</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>43,21; 50,54</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>43,08; 50,65</t>
+          <t>44,08; 51,83</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>43,98; 51,49</t>
+          <t>43,67; 51,34</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>43,53; 51,0</t>
+          <t>58,02; 63,85</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>57,19; 62,92</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>58,01; 63,81</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>57,28; 62,84</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>55,49; 60,98</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,07</t>
+          <t>55,59; 61,17</t>
         </is>
       </c>
     </row>
@@ -1511,47 +1307,32 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,57%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>62,57%</t>
+          <t>64,89%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>64,89%</t>
+          <t>60,39%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>60,39%</t>
+          <t>63,96%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,94%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>63,96%</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>64,94%</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
           <t>61,93%</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1345,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>63,82; 67,1</t>
+          <t>63,7; 67,02</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>63,23; 66,56</t>
+          <t>63,38; 66,75</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>61,8; 65,11</t>
+          <t>61,95; 65,16</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>61,01; 64,43</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>61,03; 64,22</t>
+          <t>63,06; 66,49</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>63,18; 66,4</t>
+          <t>58,8; 62,05</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>58,84; 62,26</t>
+          <t>62,75; 65,19</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>63,74; 66,11</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>62,73; 65,19</t>
-        </is>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>63,83; 66,16</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="inlineStr">
-        <is>
-          <t>60,66; 63,01</t>
-        </is>
-      </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,02</t>
+          <t>60,7; 63,01</t>
         </is>
       </c>
     </row>
@@ -1632,16 +1398,16 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P73-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P73-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -732,7 +732,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -842,7 +842,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1062,7 +1062,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1172,7 +1172,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1182,47 +1182,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>79,85%</t>
+          <t>87,52%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>76,03%</t>
+          <t>82,33%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>72,59%</t>
+          <t>78,57%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>47,02%</t>
+          <t>60,34%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>47,89%</t>
+          <t>59,39%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>47,34%</t>
+          <t>59,43%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>61,01%</t>
+          <t>72,85%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>60,01%</t>
+          <t>70,12%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>58,25%</t>
+          <t>68,42%</t>
         </is>
       </c>
     </row>
@@ -1235,54 +1235,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>76,18; 83,13</t>
+          <t>83,18; 91,32</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>72,58; 79,69</t>
+          <t>77,22; 86,53</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>68,63; 76,07</t>
+          <t>74,16; 82,82</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>43,21; 50,54</t>
+          <t>55,62; 65,47</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>44,08; 51,83</t>
+          <t>54,21; 64,57</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>43,67; 51,34</t>
+          <t>54,17; 64,63</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>58,02; 63,85</t>
+          <t>69,55; 76,35</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>57,19; 62,92</t>
+          <t>66,46; 73,79</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>55,59; 61,17</t>
+          <t>64,95; 71,78</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1292,47 +1292,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>65,41%</t>
+          <t>69,16%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>65,0%</t>
+          <t>68,21%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>63,53%</t>
+          <t>64,81%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>62,57%</t>
+          <t>33,35%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>64,89%</t>
+          <t>37,42%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>60,39%</t>
+          <t>35,93%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>63,96%</t>
+          <t>47,17%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>64,94%</t>
+          <t>49,5%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>61,93%</t>
+          <t>47,23%</t>
         </is>
       </c>
     </row>
@@ -1345,59 +1345,169 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>62,72; 75,75</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>62,06; 74,32</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>59,63; 70,29</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>28,05; 39,09</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>32,25; 42,45</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>30,65; 41,61</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>42,66; 51,19</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>45,32; 53,92</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>43,49; 51,45</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>65,41%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>65,0%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>63,53%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>62,57%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>64,89%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>60,39%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>63,96%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>64,94%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>61,93%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>63,7; 67,02</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>63,38; 66,75</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>61,95; 65,16</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
         <is>
           <t>61,01; 64,43</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>63,06; 66,49</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>58,8; 62,05</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>62,75; 65,19</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
         <is>
           <t>63,74; 66,11</t>
         </is>
       </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>60,7; 63,01</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
@@ -1408,6 +1518,7 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P73-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P73-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,04; 13,66</t>
+          <t>8,11; 13,59</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,82; 13,52</t>
+          <t>8,03; 13,85</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,79; 12,84</t>
+          <t>6,66; 12,3</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>13,12; 20,06</t>
+          <t>12,95; 19,65</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>15,0; 22,61</t>
+          <t>14,76; 22,7</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>16,48; 24,63</t>
+          <t>16,38; 24,31</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>11,25; 15,64</t>
+          <t>10,98; 15,56</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>11,91; 16,71</t>
+          <t>12,16; 16,75</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>12,45; 17,45</t>
+          <t>12,2; 17,33</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>49,38; 56,88</t>
+          <t>49,25; 56,79</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>44,07; 51,94</t>
+          <t>43,67; 51,77</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>50,13; 58,5</t>
+          <t>50,32; 58,41</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>63,17; 71,21</t>
+          <t>63,42; 71,04</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>64,23; 71,55</t>
+          <t>63,41; 71,49</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>56,62; 64,58</t>
+          <t>56,78; 64,44</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>56,95; 62,55</t>
+          <t>57,01; 62,37</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>54,34; 59,79</t>
+          <t>54,5; 60,08</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>54,3; 60,18</t>
+          <t>54,65; 60,38</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>76,96; 83,51</t>
+          <t>76,97; 83,26</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>77,61; 83,99</t>
+          <t>77,66; 83,65</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>71,32; 78,23</t>
+          <t>71,13; 77,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>80,0; 86,16</t>
+          <t>80,42; 86,21</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>83,09; 88,53</t>
+          <t>83,09; 88,7</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>76,39; 82,32</t>
+          <t>76,27; 82,29</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>79,54; 84,04</t>
+          <t>79,36; 83,83</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>81,54; 85,51</t>
+          <t>81,45; 85,51</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>74,9; 79,35</t>
+          <t>74,9; 79,5</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>82,38; 89,07</t>
+          <t>82,49; 89,04</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>77,5; 84,37</t>
+          <t>77,93; 84,53</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>70,74; 77,3</t>
+          <t>70,39; 77,6</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>75,78; 82,95</t>
+          <t>75,62; 82,86</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>76,39; 83,24</t>
+          <t>76,97; 83,54</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>72,12; 79,23</t>
+          <t>72,19; 79,22</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>80,23; 85,21</t>
+          <t>80,5; 85,32</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>78,1; 82,96</t>
+          <t>78,19; 83,12</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>72,35; 77,37</t>
+          <t>72,31; 77,36</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>84,57; 91,34</t>
+          <t>84,4; 90,92</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>83,11; 89,76</t>
+          <t>82,66; 89,73</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>76,95; 84,33</t>
+          <t>77,08; 84,63</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>73,55; 81,34</t>
+          <t>73,82; 81,69</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>74,14; 82,57</t>
+          <t>74,72; 82,37</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>62,54; 71,46</t>
+          <t>62,26; 71,04</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>79,91; 85,19</t>
+          <t>80,0; 85,27</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>79,72; 85,18</t>
+          <t>79,72; 85,08</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>70,84; 76,85</t>
+          <t>70,88; 76,91</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>83,18; 91,32</t>
+          <t>82,9; 90,64</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>77,22; 86,53</t>
+          <t>77,5; 86,28</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>74,16; 82,82</t>
+          <t>73,78; 82,61</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>55,62; 65,47</t>
+          <t>55,7; 65,01</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>54,21; 64,57</t>
+          <t>54,2; 64,42</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>54,17; 64,63</t>
+          <t>54,13; 64,22</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>69,55; 76,35</t>
+          <t>69,26; 75,81</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>66,46; 73,79</t>
+          <t>66,22; 73,71</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>64,95; 71,78</t>
+          <t>64,79; 71,74</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>62,72; 75,75</t>
+          <t>62,41; 74,64</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>62,06; 74,32</t>
+          <t>61,62; 74,2</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>59,63; 70,29</t>
+          <t>59,64; 70,55</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>28,05; 39,09</t>
+          <t>28,0; 38,8</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>32,25; 42,45</t>
+          <t>32,81; 42,48</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>30,65; 41,61</t>
+          <t>30,83; 40,85</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>42,66; 51,19</t>
+          <t>43,04; 51,58</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>45,32; 53,92</t>
+          <t>45,24; 53,64</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>43,49; 51,45</t>
+          <t>42,78; 51,38</t>
         </is>
       </c>
     </row>
@@ -1455,47 +1456,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>63,7; 67,02</t>
+          <t>63,71; 67,06</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>63,38; 66,75</t>
+          <t>63,3; 66,64</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>61,95; 65,16</t>
+          <t>61,71; 65,18</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>61,01; 64,43</t>
+          <t>60,89; 64,23</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>63,06; 66,49</t>
+          <t>63,29; 66,58</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>58,8; 62,05</t>
+          <t>58,7; 61,97</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>62,75; 65,19</t>
+          <t>62,79; 65,13</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>63,74; 66,11</t>
+          <t>63,78; 66,11</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>60,7; 63,01</t>
+          <t>60,71; 63,07</t>
         </is>
       </c>
     </row>
@@ -1523,4 +1524,1455 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que están casados o viven en pareja</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>52330</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>47370</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>39128</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>75268</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>77568</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>80724</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>127599</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>124938</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>119852</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>40075; 67138</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>36082; 62253</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>27951; 51574</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>60559; 91879</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>62536; 96176</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>64676; 95984</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>105539; 149633</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>106186; 146284</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>99369; 141126</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>367</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>303</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>395</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>385</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>762</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>701</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>653</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>390685</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>326188</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>320354</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>420749</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>412459</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>341323</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>811434</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>738648</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>661677</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>362217; 417679</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>298236; 353585</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>296612; 344294</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>396701; 444369</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>386359; 435596</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>319493; 362546</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>775949; 848911</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>704305; 776388</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>629576; 695594</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>495</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>526</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>474</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>553</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>574</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>524</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>1048</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>1100</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>998</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>511786</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>551840</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>499366</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>575552</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>610398</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>525070</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>1087338</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>1162238</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>1024436</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>491592; 531773</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>529566; 570355</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>474489; 518963</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>554726; 594637</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>588262; 627978</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>504470; 544274</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1054263; 1113575</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1132021; 1188451</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>994965; 1056098</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>419</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>448</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>431</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>402</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>429</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>458</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>821</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>877</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>889</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>446151</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>499551</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>478804</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>410721</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>492415</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>490932</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>856872</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>991966</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>969736</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>427472; 461462</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>478962; 519538</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>454762; 501320</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>389911; 427254</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>473515; 513899</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>468564; 514180</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>832313; 882090</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>961578; 1022268</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>936532; 1001959</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>346</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>339</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>344</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>307</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>319</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>292</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>653</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>658</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>636</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>340268</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>370687</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>387461</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>313710</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>351878</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>333192</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>653978</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>722565</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>720653</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>326393; 351610</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>354010; 384290</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>368370; 404459</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>298235; 330025</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>334603; 368835</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>309329; 352972</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>632593; 674218</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>698444; 745374</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>690922; 749673</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>266</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>491</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>434</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>466</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>256081</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>254236</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>262678</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>206911</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>208566</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>224501</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>462992</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>462802</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>487179</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>242561; 265183</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>239294; 266414</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>246684; 276175</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>190998; 222949</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>190358; 226248</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>204486; 242612</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>440181; 481810</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>437068; 486450</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>461333; 510865</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>247</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>306</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>145156</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>169870</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>166560</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>111345</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>144325</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>143787</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>256501</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>314195</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>310347</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>130992; 156664</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>153452; 184789</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>153285; 181313</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>93487; 129540</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>126570; 163857</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>123367; 163449</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>234043; 280512</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>287139; 340460</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>281104; 337648</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>2096</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>2058</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>2043</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>2053</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>2115</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>4149</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>4173</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>4067</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>2142457</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>2219741</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>2154352</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>2114257</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>2297610</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>2139529</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>4256715</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>4517351</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>4293881</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>2086954; 2196751</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>2161804; 2275656</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>2092814; 2210377</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>2057600; 2170402</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>2240852; 2357472</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>2079736; 2195291</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>4178497; 4333967</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>4436736; 4598680</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>4209717; 4373419</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>